--- a/check 1.xlsx
+++ b/check 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decod\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decod\Desktop\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6A934B-BDDA-4C5F-ACE4-28A1DEEA49D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A394A-906C-4BEB-8BAC-F090565C1A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>MT4 Account</t>
   </si>
@@ -52,16 +52,64 @@
     <t>Total Score</t>
   </si>
   <si>
-    <t>2****93</t>
-  </si>
-  <si>
-    <t>kha***************gmail.com</t>
-  </si>
-  <si>
-    <t>2****01</t>
-  </si>
-  <si>
-    <t>646*******qq.com</t>
+    <t>2xxx105</t>
+  </si>
+  <si>
+    <t>2xxx485</t>
+  </si>
+  <si>
+    <t>2xxx858</t>
+  </si>
+  <si>
+    <t>2xxx556</t>
+  </si>
+  <si>
+    <t>2xxx475</t>
+  </si>
+  <si>
+    <t>2xxx647</t>
+  </si>
+  <si>
+    <t>2xxx441</t>
+  </si>
+  <si>
+    <t>2xxx213</t>
+  </si>
+  <si>
+    <t>2xxx845</t>
+  </si>
+  <si>
+    <t>2xxx447</t>
+  </si>
+  <si>
+    <t>877******qq.com</t>
+  </si>
+  <si>
+    <t>290*******qq.com</t>
+  </si>
+  <si>
+    <t>she**************163.com</t>
+  </si>
+  <si>
+    <t>Zfa*****************gmail.com</t>
+  </si>
+  <si>
+    <t>774******qq.com</t>
+  </si>
+  <si>
+    <t>skt******outlook.com</t>
+  </si>
+  <si>
+    <t>233*******qq.com</t>
+  </si>
+  <si>
+    <t>wan**************126.com</t>
+  </si>
+  <si>
+    <t>fei*****163.com</t>
+  </si>
+  <si>
+    <t>you*****qq.com</t>
   </si>
 </sst>
 </file>
@@ -903,11 +951,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -941,16 +987,17 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <f>C2*0.9+D2*0.1</f>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,21 +1005,166 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3*0.9+D3*0.1</f>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4*0.9+D4*0.1</f>
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
-        <v>-7.1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-6.36</v>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5*0.9+D5*0.1</f>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f>C6*0.9+D6*0.1</f>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E7" s="1">
+        <f>C7*0.9+D7*0.1</f>
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>C8*0.9+D8*0.1</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E9" s="1">
+        <f>C9*0.9+D9*0.1</f>
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13.33</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E10" s="1">
+        <f>C10*0.9+D10*0.1</f>
+        <v>12.516999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*0.9+D11*0.1</f>
+        <v>9.9500000000000011</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
       <sortCondition descending="1" ref="E1:E3"/>
     </sortState>
   </autoFilter>

--- a/check 1.xlsx
+++ b/check 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decod\Desktop\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A394A-906C-4BEB-8BAC-F090565C1A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431FE216-712C-40EF-AA32-EE64358014D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,9 +79,6 @@
     <t>2xxx845</t>
   </si>
   <si>
-    <t>2xxx447</t>
-  </si>
-  <si>
     <t>877******qq.com</t>
   </si>
   <si>
@@ -109,7 +106,10 @@
     <t>fei*****163.com</t>
   </si>
   <si>
-    <t>you*****qq.com</t>
+    <t>2xxx222</t>
+  </si>
+  <si>
+    <t>l88*******qq.com</t>
   </si>
 </sst>
 </file>
@@ -593,9 +593,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,7 +952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,17 +988,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E2" s="1">
-        <f>C2*0.9+D2*0.1</f>
-        <v>32</v>
+        <v>27.55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,53 +1005,50 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
-        <f>C3*0.9+D3*0.1</f>
-        <v>18.600000000000001</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f>C4*0.9+D4*0.1</f>
-        <v>18.43</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="1">
-        <f>C5*0.9+D5*0.1</f>
-        <v>18.100000000000001</v>
+        <v>19.350000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,17 +1056,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <f>C6*0.9+D6*0.1</f>
-        <v>18.100000000000001</v>
+        <v>17.400000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,53 +1073,50 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="E7" s="1">
-        <f>C7*0.9+D7*0.1</f>
-        <v>14.11</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="E8" s="1">
-        <f>C8*0.9+D8*0.1</f>
-        <v>13.8</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>14</v>
+        <v>15.8</v>
       </c>
       <c r="D9" s="1">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="E9" s="1">
-        <f>C9*0.9+D9*0.1</f>
-        <v>12.74</v>
+        <v>14.540000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,41 +1124,45 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>13.33</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>5.2</v>
+        <v>5.22</v>
       </c>
       <c r="E10" s="1">
-        <f>C10*0.9+D10*0.1</f>
-        <v>12.516999999999999</v>
+        <v>14.022</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
       <c r="D11" s="1">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E11" s="1">
-        <f>C11*0.9+D11*0.1</f>
-        <v>9.9500000000000011</v>
-      </c>
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:E10" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
-      <sortCondition descending="1" ref="E1:E3"/>
+      <sortCondition descending="1" ref="E1:E10"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/check 1.xlsx
+++ b/check 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decod\Desktop\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431FE216-712C-40EF-AA32-EE64358014D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9BE302-6D8B-4C9D-9F6E-34426C0F0BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,18 +64,12 @@
     <t>2xxx556</t>
   </si>
   <si>
-    <t>2xxx475</t>
-  </si>
-  <si>
     <t>2xxx647</t>
   </si>
   <si>
     <t>2xxx441</t>
   </si>
   <si>
-    <t>2xxx213</t>
-  </si>
-  <si>
     <t>2xxx845</t>
   </si>
   <si>
@@ -91,25 +85,31 @@
     <t>Zfa*****************gmail.com</t>
   </si>
   <si>
-    <t>774******qq.com</t>
-  </si>
-  <si>
     <t>skt******outlook.com</t>
   </si>
   <si>
     <t>233*******qq.com</t>
   </si>
   <si>
-    <t>wan**************126.com</t>
-  </si>
-  <si>
     <t>fei*****163.com</t>
   </si>
   <si>
-    <t>2xxx222</t>
-  </si>
-  <si>
-    <t>l88*******qq.com</t>
+    <t>2xxx905</t>
+  </si>
+  <si>
+    <t>bil******hotmail.com</t>
+  </si>
+  <si>
+    <t>2xxx917</t>
+  </si>
+  <si>
+    <t>378********qq.com</t>
+  </si>
+  <si>
+    <t>784********qq.com</t>
+  </si>
+  <si>
+    <t>2xxx957</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -985,172 +987,182 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>5.5</v>
       </c>
       <c r="E2" s="1">
-        <v>27.55</v>
+        <f>C2*0.9+D2*0.01</f>
+        <v>45.055</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E3" s="1">
-        <v>23.2</v>
+        <f>C3*0.9+D3*0.01</f>
+        <v>25.265000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="E4" s="1">
-        <v>20.9</v>
+        <f t="shared" ref="E4:E11" si="0">C4*0.9+D4*0.01</f>
+        <v>23.475000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>21</v>
+        <v>24.56</v>
       </c>
       <c r="D5" s="1">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>19.350000000000001</v>
+        <f t="shared" si="0"/>
+        <v>22.183999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>23.1</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="1">
-        <v>17.400000000000002</v>
+        <f t="shared" si="0"/>
+        <v>20.815000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>21.3</v>
       </c>
       <c r="D7" s="1">
-        <v>6.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E7" s="1">
-        <v>15.05</v>
+        <f t="shared" si="0"/>
+        <v>19.216000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="E8" s="1">
-        <v>14.58</v>
+        <f t="shared" si="0"/>
+        <v>17.676000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>15.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="E9" s="1">
-        <v>14.540000000000001</v>
+        <f t="shared" si="0"/>
+        <v>17.052</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>15</v>
+        <v>15.86</v>
       </c>
       <c r="D10" s="1">
-        <v>5.22</v>
+        <v>6.6</v>
       </c>
       <c r="E10" s="1">
-        <v>14.022</v>
+        <f t="shared" si="0"/>
+        <v>14.34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>14</v>
+        <v>14.79</v>
       </c>
       <c r="D11" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>12.85</v>
+        <f t="shared" si="0"/>
+        <v>13.331</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,11 +1172,12 @@
       <c r="E12" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E10" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
-      <sortCondition descending="1" ref="E1:E10"/>
+      <sortCondition descending="1" ref="E1:E11"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>